--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Myoc</t>
+  </si>
+  <si>
+    <t>Fzd3</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Myoc</t>
-  </si>
-  <si>
-    <t>Fzd3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H2">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I2">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J2">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N2">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O2">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P2">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q2">
-        <v>0.5588772683400001</v>
+        <v>0.17947451018525</v>
       </c>
       <c r="R2">
-        <v>2.23550907336</v>
+        <v>0.7178980407409999</v>
       </c>
       <c r="S2">
-        <v>0.004964981091717198</v>
+        <v>0.002032218365504422</v>
       </c>
       <c r="T2">
-        <v>0.00318898203566459</v>
+        <v>0.001306730760290027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H3">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I3">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J3">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.824174</v>
       </c>
       <c r="O3">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P3">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q3">
-        <v>0.36918050156</v>
+        <v>0.2169908658796667</v>
       </c>
       <c r="R3">
-        <v>2.21508300936</v>
+        <v>1.301945195278</v>
       </c>
       <c r="S3">
-        <v>0.003279743717472078</v>
+        <v>0.002457022015729153</v>
       </c>
       <c r="T3">
-        <v>0.003159843996400257</v>
+        <v>0.002369823760941776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H4">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I4">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J4">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N4">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O4">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P4">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q4">
-        <v>3.2589381966</v>
+        <v>1.6447623498845</v>
       </c>
       <c r="R4">
-        <v>13.0357527864</v>
+        <v>6.579049399538</v>
       </c>
       <c r="S4">
-        <v>0.02895191384908913</v>
+        <v>0.01862390514884488</v>
       </c>
       <c r="T4">
-        <v>0.0185956666213449</v>
+        <v>0.01197530253038473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H5">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I5">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J5">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N5">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O5">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P5">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q5">
-        <v>0.16845724374</v>
+        <v>0.02062083807233333</v>
       </c>
       <c r="R5">
-        <v>1.01074346244</v>
+        <v>0.123725028434</v>
       </c>
       <c r="S5">
-        <v>0.001496548665176822</v>
+        <v>0.0002334930224878954</v>
       </c>
       <c r="T5">
-        <v>0.001441838363707471</v>
+        <v>0.0002252064935371436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.34382</v>
+        <v>0.7898485</v>
       </c>
       <c r="H6">
-        <v>2.68764</v>
+        <v>1.579697</v>
       </c>
       <c r="I6">
-        <v>0.0389481852943593</v>
+        <v>0.02334787276659702</v>
       </c>
       <c r="J6">
-        <v>0.02663200686159342</v>
+        <v>0.01587825395766005</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N6">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O6">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P6">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q6">
-        <v>0.02870354726</v>
+        <v>0.000108999093</v>
       </c>
       <c r="R6">
-        <v>0.17222128356</v>
+        <v>0.0006539945579999999</v>
       </c>
       <c r="S6">
-        <v>0.0002549979709040728</v>
+        <v>1.234214030668123E-06</v>
       </c>
       <c r="T6">
-        <v>0.0002456758444762054</v>
+        <v>1.190412506375953E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>95.29137</v>
       </c>
       <c r="I7">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J7">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N7">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O7">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P7">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q7">
-        <v>13.21014733173</v>
+        <v>7.217574828435</v>
       </c>
       <c r="R7">
-        <v>79.26088399037999</v>
+        <v>43.30544897061</v>
       </c>
       <c r="S7">
-        <v>0.117356950150523</v>
+        <v>0.08172574537525325</v>
       </c>
       <c r="T7">
-        <v>0.113066655907736</v>
+        <v>0.07882534711984532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>95.29137</v>
       </c>
       <c r="I8">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J8">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.824174</v>
       </c>
       <c r="O8">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P8">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q8">
         <v>8.726296619819999</v>
@@ -948,10 +948,10 @@
         <v>78.53666957838</v>
       </c>
       <c r="S8">
-        <v>0.07752309884925244</v>
+        <v>0.09880924168748505</v>
       </c>
       <c r="T8">
-        <v>0.1120335548671904</v>
+        <v>0.142953840412873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>95.29137</v>
       </c>
       <c r="I9">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J9">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N9">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O9">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P9">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q9">
-        <v>77.0313200427</v>
+        <v>66.14418572883001</v>
       </c>
       <c r="R9">
-        <v>462.1879202562001</v>
+        <v>396.86511437298</v>
       </c>
       <c r="S9">
-        <v>0.6843345921332908</v>
+        <v>0.7489611135905527</v>
       </c>
       <c r="T9">
-        <v>0.6593169280153692</v>
+        <v>0.7223809276619678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>95.29137</v>
       </c>
       <c r="I10">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J10">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N10">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O10">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P10">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q10">
-        <v>3.981813423030001</v>
+        <v>0.82926785346</v>
       </c>
       <c r="R10">
-        <v>35.83632080727001</v>
+        <v>7.46341068114</v>
       </c>
       <c r="S10">
-        <v>0.0353738279869751</v>
+        <v>0.009389931528351056</v>
       </c>
       <c r="T10">
-        <v>0.05112096597618848</v>
+        <v>0.01358503263730358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>95.29137</v>
       </c>
       <c r="I11">
-        <v>0.9206158403440319</v>
+        <v>0.9389356661497832</v>
       </c>
       <c r="J11">
-        <v>0.9442486418161055</v>
+        <v>0.9578169565640426</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N11">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O11">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P11">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q11">
-        <v>0.67846396647</v>
+        <v>0.00438340302</v>
       </c>
       <c r="R11">
-        <v>6.10617569823</v>
+        <v>0.03945062718</v>
       </c>
       <c r="S11">
-        <v>0.006027371223990622</v>
+        <v>4.963396814097364E-05</v>
       </c>
       <c r="T11">
-        <v>0.008710537049621431</v>
+        <v>7.180873205285466E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H12">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I12">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J12">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N12">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O12">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P12">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q12">
-        <v>0.5185285354304999</v>
+        <v>0.275121756123</v>
       </c>
       <c r="R12">
-        <v>2.074114141722</v>
+        <v>1.100487024492</v>
       </c>
       <c r="S12">
-        <v>0.004606529053462993</v>
+        <v>0.003115247312645622</v>
       </c>
       <c r="T12">
-        <v>0.002958750119465154</v>
+        <v>0.002003126021516126</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H13">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I13">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J13">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.824174</v>
       </c>
       <c r="O13">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P13">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q13">
-        <v>0.342527126487</v>
+        <v>0.332631681356</v>
       </c>
       <c r="R13">
-        <v>2.055162758922</v>
+        <v>1.995790088136</v>
       </c>
       <c r="S13">
-        <v>0.003042959166078614</v>
+        <v>0.003766441324188849</v>
       </c>
       <c r="T13">
-        <v>0.002931715731629113</v>
+        <v>0.003632772554383031</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H14">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I14">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J14">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N14">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O14">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P14">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q14">
-        <v>3.023655721695</v>
+        <v>2.521304588814</v>
       </c>
       <c r="R14">
-        <v>12.09462288678</v>
+        <v>10.085218355256</v>
       </c>
       <c r="S14">
-        <v>0.02686169994114919</v>
+        <v>0.02854913204738467</v>
       </c>
       <c r="T14">
-        <v>0.01725313288758372</v>
+        <v>0.01835729351685074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H15">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I15">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J15">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N15">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O15">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P15">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q15">
-        <v>0.1562952956355</v>
+        <v>0.031610289268</v>
       </c>
       <c r="R15">
-        <v>0.937771773813</v>
+        <v>0.189661735608</v>
       </c>
       <c r="S15">
-        <v>0.001388503758364557</v>
+        <v>0.0003579283226516719</v>
       </c>
       <c r="T15">
-        <v>0.001337743324722076</v>
+        <v>0.0003452256586647817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.2468015</v>
+        <v>1.210782</v>
       </c>
       <c r="H16">
-        <v>2.493603</v>
+        <v>2.421564</v>
       </c>
       <c r="I16">
-        <v>0.03613628004292622</v>
+        <v>0.03579064096986433</v>
       </c>
       <c r="J16">
-        <v>0.02470928108157712</v>
+        <v>0.02434024256976313</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N16">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O16">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P16">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q16">
-        <v>0.0266312644395</v>
+        <v>0.000167087916</v>
       </c>
       <c r="R16">
-        <v>0.159787586637</v>
+        <v>0.001002527496</v>
       </c>
       <c r="S16">
-        <v>0.0002365881238708713</v>
+        <v>1.891962993511302E-06</v>
       </c>
       <c r="T16">
-        <v>0.0002279390181770621</v>
+        <v>1.824818348448962E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H17">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I17">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J17">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N17">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O17">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P17">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q17">
-        <v>0.025592438319</v>
+        <v>0.01480373073283334</v>
       </c>
       <c r="R17">
-        <v>0.153554629914</v>
+        <v>0.08882238439700001</v>
       </c>
       <c r="S17">
-        <v>0.0002273593497946163</v>
+        <v>0.0001676249927758188</v>
       </c>
       <c r="T17">
-        <v>0.0002190476263882349</v>
+        <v>0.0001616760811522245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H18">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I18">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J18">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.824174</v>
       </c>
       <c r="O18">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P18">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q18">
-        <v>0.01690573181266667</v>
+        <v>0.01789822045844445</v>
       </c>
       <c r="R18">
-        <v>0.152151586314</v>
+        <v>0.161083984126</v>
       </c>
       <c r="S18">
-        <v>0.0001501879635234475</v>
+        <v>0.0002026643911046432</v>
       </c>
       <c r="T18">
-        <v>0.0002170461669045884</v>
+        <v>0.0002932079280091746</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H19">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I19">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J19">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N19">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O19">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P19">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q19">
-        <v>0.14923522481</v>
+        <v>0.1356661674243334</v>
       </c>
       <c r="R19">
-        <v>0.8954113488600001</v>
+        <v>0.8139970045460001</v>
       </c>
       <c r="S19">
-        <v>0.001325783157365866</v>
+        <v>0.001536169547044606</v>
       </c>
       <c r="T19">
-        <v>0.001277315641467274</v>
+        <v>0.001481651800478931</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1641,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H20">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I20">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J20">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N20">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O20">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P20">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q20">
-        <v>0.007714093709000002</v>
+        <v>0.001700884064222222</v>
       </c>
       <c r="R20">
-        <v>0.06942684338100001</v>
+        <v>0.015307956578</v>
       </c>
       <c r="S20">
-        <v>6.853084133960359E-05</v>
+        <v>1.925938022808032E-05</v>
       </c>
       <c r="T20">
-        <v>9.903827229926626E-05</v>
+        <v>2.786381436145107E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.061537</v>
+        <v>0.06514966666666668</v>
       </c>
       <c r="H21">
-        <v>0.184611</v>
+        <v>0.195449</v>
       </c>
       <c r="I21">
-        <v>0.001783538329879737</v>
+        <v>0.001925820113755411</v>
       </c>
       <c r="J21">
-        <v>0.001829322907355756</v>
+        <v>0.001964546908534168</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N21">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O21">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P21">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q21">
-        <v>0.001314409807666667</v>
+        <v>8.990654000000001E-06</v>
       </c>
       <c r="R21">
-        <v>0.011829688269</v>
+        <v>8.0915886E-05</v>
       </c>
       <c r="S21">
-        <v>1.16770178562039E-05</v>
+        <v>1.018026022627774E-07</v>
       </c>
       <c r="T21">
-        <v>1.687520029639265E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.260443</v>
-      </c>
-      <c r="I22">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J22">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.415887</v>
-      </c>
-      <c r="N22">
-        <v>0.831774</v>
-      </c>
-      <c r="O22">
-        <v>0.1274765705819998</v>
-      </c>
-      <c r="P22">
-        <v>0.1197424607254622</v>
-      </c>
-      <c r="Q22">
-        <v>0.036104952647</v>
-      </c>
-      <c r="R22">
-        <v>0.216629715882</v>
-      </c>
-      <c r="S22">
-        <v>0.0003207509365019379</v>
-      </c>
-      <c r="T22">
-        <v>0.0003090250362081948</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.260443</v>
-      </c>
-      <c r="I23">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J23">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.2747246666666667</v>
-      </c>
-      <c r="N23">
-        <v>0.824174</v>
-      </c>
-      <c r="O23">
-        <v>0.08420786983230948</v>
-      </c>
-      <c r="P23">
-        <v>0.1186483622064973</v>
-      </c>
-      <c r="Q23">
-        <v>0.02385003878688889</v>
-      </c>
-      <c r="R23">
-        <v>0.214650349082</v>
-      </c>
-      <c r="S23">
-        <v>0.0002118801359828897</v>
-      </c>
-      <c r="T23">
-        <v>0.0003062014443729339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.260443</v>
-      </c>
-      <c r="I24">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J24">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.42513</v>
-      </c>
-      <c r="N24">
-        <v>4.85026</v>
-      </c>
-      <c r="O24">
-        <v>0.7433443594426494</v>
-      </c>
-      <c r="P24">
-        <v>0.6982450371835141</v>
-      </c>
-      <c r="Q24">
-        <v>0.2105360441966667</v>
-      </c>
-      <c r="R24">
-        <v>1.26321626518</v>
-      </c>
-      <c r="S24">
-        <v>0.001870370361754382</v>
-      </c>
-      <c r="T24">
-        <v>0.001801994017749003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.260443</v>
-      </c>
-      <c r="I25">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J25">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.125357</v>
-      </c>
-      <c r="N25">
-        <v>0.376071</v>
-      </c>
-      <c r="O25">
-        <v>0.03842409226171471</v>
-      </c>
-      <c r="P25">
-        <v>0.05413930580600655</v>
-      </c>
-      <c r="Q25">
-        <v>0.01088278438366667</v>
-      </c>
-      <c r="R25">
-        <v>0.097945059453</v>
-      </c>
-      <c r="S25">
-        <v>9.668100985862369E-05</v>
-      </c>
-      <c r="T25">
-        <v>0.0001397198690892623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.08681433333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.260443</v>
-      </c>
-      <c r="I26">
-        <v>0.002516155988802771</v>
-      </c>
-      <c r="J26">
-        <v>0.002580747333368299</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.02135966666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.064079</v>
-      </c>
-      <c r="O26">
-        <v>0.006547107881326709</v>
-      </c>
-      <c r="P26">
-        <v>0.009224834078519996</v>
-      </c>
-      <c r="Q26">
-        <v>0.001854325221888889</v>
-      </c>
-      <c r="R26">
-        <v>0.016688926997</v>
-      </c>
-      <c r="S26">
-        <v>1.647354470493802E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.380696594890549E-05</v>
+        <v>1.472845323873336E-07</v>
       </c>
     </row>
   </sheetData>
